--- a/biology/Médecine/Psychiatre/Psychiatre.xlsx
+++ b/biology/Médecine/Psychiatre/Psychiatre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un psychiatre est un médecin spécialisé en santé mentale, exerçant la psychiatrie. Il diagnostique, traite et tente de prévenir la souffrance psychique et les maladies mentales.
 Le psychiatre, après une formation médicale polyvalente, effectue une spécialisation en psychiatrie générale.
@@ -521,8 +533,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France
-Comme les autres médecins, il doit passer un concours après la première année des études de santé.
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres médecins, il doit passer un concours après la première année des études de santé.
 Le psychiatre doit valider un tronc commun de 6 ans comme tous les médecins spécialistes, ce tronc commun comprend l’étude des sciences fondamentales et de la pathologie générale, il comprend par ailleurs une formation en sciences humaines et en psychologie médicale. En plus de la formation théorique, le psychiatre doit effectuer des stages au sein de différents services hospitaliers et participe aux services de garde.
 À l'issue de l'examen national classant, en fin de 6e année, il choisit la spécialité « Psychiatrie » et son lieu de formation pour l'internat des hôpitaux.
 L'internat est la période de formation spécialisée et de la prise de fonction en tant qu'interne des hôpitaux.
@@ -537,8 +554,43 @@
 DESC d'addictologie : spécialisation dans les conduites de dépendance et l'addiction
 DESC de médecine légale
 Enfin, certains internes en psychiatrie réalisent un double cursus et peuvent être titulaires de masters complémentaires voire d'une thèse de doctorat en sciences, comme en biologie (neurosciences, génétique), en psychologie ou en sciences humaines (anthropologie, criminologie). Ce double cursus peut être indispensable pour accéder à des fonctions universitaires (Professeur des universités-praticien hospitalier-PUPH).
-Au Québec
-Au Québec, tous les médecins doivent obtenir un doctorat de 1er cycle en médecine, nécessitant de 4 à 6 ans d'étude, pour obtenir le droit de pratique avant d’effectuer obligatoirement des études postdoctorales, d’une durée de 2 ans pour les omnipraticiens, et de 4 à 8 ans pour les autres spécialités. Le psychiatre est un médecin spécialiste selon les 60 spécialités médicales fixé par le Collège des médecins[1] : ses études postdoctorales sont d’une durée d’environ 5 ans ou 6 ans pour les pédopsychiatres et les psychiatres légistes. Les formations sont toutes réparties de la même façon : la prémédecine qui prévoit la formation théorique suivie de l’externat qui vise à la mise en pratique de la théorie avant l’obtention du doctorat en médecine. S’ensuit la médecine de résidence sous la supervision d’un médecin senior qui vise à confirmer les aptitudes du médecin durant ses études postdoctorales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Psychiatre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychiatre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Au Québec</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Québec, tous les médecins doivent obtenir un doctorat de 1er cycle en médecine, nécessitant de 4 à 6 ans d'étude, pour obtenir le droit de pratique avant d’effectuer obligatoirement des études postdoctorales, d’une durée de 2 ans pour les omnipraticiens, et de 4 à 8 ans pour les autres spécialités. Le psychiatre est un médecin spécialiste selon les 60 spécialités médicales fixé par le Collège des médecins : ses études postdoctorales sont d’une durée d’environ 5 ans ou 6 ans pour les pédopsychiatres et les psychiatres légistes. Les formations sont toutes réparties de la même façon : la prémédecine qui prévoit la formation théorique suivie de l’externat qui vise à la mise en pratique de la théorie avant l’obtention du doctorat en médecine. S’ensuit la médecine de résidence sous la supervision d’un médecin senior qui vise à confirmer les aptitudes du médecin durant ses études postdoctorales.
 Quatre facultés universitaires de médecine offrent la formation en médecine et la spécialisation en psychiatrie au Québec : l’Université McGill, l’Université Laval, l’Université de Sherbrooke et l’Université de Montréal. L’entrée au sein de ces facultés de médecine est réglée selon des décrets gouvernementaux. L’Université McGill dispense sa formation en anglais, les trois autres universités offrent la formation en français mais nécessitent la maîtrise de l'anglais pour la lecture de textes obligatoires.
 La formation interne à chaque université varie selon les facultés. À titre d’exemple, l’Université McGill et l’Université de Montréal exigent une année préparatoire à la médecine avant d’accepter l’étudiant au doctorat. Ces deux facultés de médecine jouissent d’ailleurs d’une grande réputation internationale. Avec plus de 300 admissions au doctorat en médecine à chaque année, l'Université de Montréal forme à elle seule plus de la moitié du corps médical au Québec, dont près de 3/4 des chirurgiens-dentistes et 2/3 des infirmières cliniciennes.
 Il n’y a que dans quelques rares cas, notamment lorsque les étudiants détiennent des baccalauréats en science (équivalent du Bac+3), que ceux-ci peuvent être acceptés sans la scolarité préparatoire. Les sélections, très rigoureuses, exigent des notes très élevées au niveau collégial ainsi que des tests d’aptitudes sociales : les MEM (mini-entrevues multiples). Cependant, à cause de la situation sociale difficile de certains milieux au Québec, il existe des méthodes qui facilitent l’accès aux étudiants issu des milieux ruraux et des milieux autochtones suivant des ententes inter-facultés.
@@ -546,31 +598,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Psychiatre</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Psychiatre</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Mode d'exercice</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon les pays, les spécialistes en psychiatrie peuvent pratiquer dans un cabinet privé à l'hôpital ou dans une autre institution publique ou privée.
 Ils collaborent avec des équipes pluridisciplinaires composées d'infirmiers, de psychologues, psychomotriciens, éducateurs spécialisés, ergothérapeute, assistants sociaux, orthophonistes, etc.
@@ -579,34 +633,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Psychiatre</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Psychiatre</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consultation et diagnostic
-La consultation psychiatrique s'adresse à des personnes qui présentent des souffrances psychiques, des troubles du comportement ou d'apprentissage, des problèmes personnels et relationnels, des troubles anxieux, des dépendances, etc. Elle a pour but de porter un diagnostic, éventuellement à l'aide d'examens complémentaires (examen neurologique, bilan psychométrique, bilan biologique).
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Consultation et diagnostic</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La consultation psychiatrique s'adresse à des personnes qui présentent des souffrances psychiques, des troubles du comportement ou d'apprentissage, des problèmes personnels et relationnels, des troubles anxieux, des dépendances, etc. Elle a pour but de porter un diagnostic, éventuellement à l'aide d'examens complémentaires (examen neurologique, bilan psychométrique, bilan biologique).
 Le médecin psychiatre diagnostique, évalue, et traite les principaux troubles suivants :
 Troubles de l'humeur
 Troubles anxieux
@@ -618,44 +677,114 @@
 Troubles dissociatifs
 Troubles psychotiques
 Addictions et abus de substance
-Troubles cognitifs
-Traitements
-Le psychiatre délivre des soins de type psychothérapeutique et/ou psychopharmacologique en fonction des situations et de la sévérité des pathologies rencontrées
+Troubles cognitifs</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Psychiatre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychiatre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traitements</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le psychiatre délivre des soins de type psychothérapeutique et/ou psychopharmacologique en fonction des situations et de la sévérité des pathologies rencontrées
 par des approches de psychothérapeutique : dans le cadre de ses interventions psychothérapiques, il peut utiliser diverses techniques par exemple : psychothérapie d'inspiration psychanalytique (PIP), les thérapies cognitivo-comportementales, des méthodes de relaxation, l'hypnose, l'EMDR, la thérapie familiale, et la psychiatrie institutionnelle.
 par une approche médicamenteuse : la psychopharmacologie
-par des techniques de neurostimulation : TMS (stimulation magnétique transcrânienne), voire ECT (électroconvulsivothérapie) dans les cas sévères et quand le risque vital est engagé.
-Conseils et expertise
-Certains psychiatres sont experts auprès des tribunaux et sont habilités à évaluer des patients en cas de demande de mesure de protection ou des prévenus en cas d'expertise judiciaire dans le cadre d'une procédure pénale.
+par des techniques de neurostimulation : TMS (stimulation magnétique transcrânienne), voire ECT (électroconvulsivothérapie) dans les cas sévères et quand le risque vital est engagé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Psychiatre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychiatre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Conseils et expertise</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains psychiatres sont experts auprès des tribunaux et sont habilités à évaluer des patients en cas de demande de mesure de protection ou des prévenus en cas d'expertise judiciaire dans le cadre d'une procédure pénale.
 Le psychiatre peut collaborer avec des médecins d'autres disciplines, avec d'autres professionnels de la justice, de la santé et du social afin de proposer des mesures préventives dans les milieux carcéraux, sociaux et culturels et collaborer à leur réalisation ou encore à titre de conseiller pour  diverses instances civiles et judiciaires sur les questions touchant aux répercussions de troubles et d'affections psychiques (expertise pour les tribunaux notamment).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Psychiatre</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Psychiatre</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Psychiatres célèbres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Philippe Pinel (1745-1826) crée la première école de psychiatrie en France et interdit l'enchaînement des aliénés dans les asiles de Paris.
 Jean-Étienne Esquirol (1772-1840) délimite les concepts d'idiotie, démence, hallucinations et illusions.
@@ -675,7 +804,7 @@
 Gaëtan Gatian de Clérambault (1872-1934) crée le concept d'automatisme mental.
 Eugen Bleuler (1857-1939) définit la schizophrénie et l'autisme.
 Paul Sérieux (1864-1947) et Joseph Capgras (1873-1950) publient un ouvrage sur les folies raisonnantes : qui est appelé aujourd'hui délire d'interprétation (voir aussi paranoïa).
-Madeleine Pelletier (1874-1939) est la première femme à devenir psychiatre en France en 1906[2].
+Madeleine Pelletier (1874-1939) est la première femme à devenir psychiatre en France en 1906.
 Ludwig Binswanger (1881-1966), psychiatre phénoménologue suisse.
 Karl Jaspers (1883-1969) travaille sur les méthodes cliniques de la psychiatrie et crée la méthode bibliographique.
 Eugène Minkovski (1885-1972) révolutionne l'approche de la schizophrénie.
@@ -695,7 +824,7 @@
 Mara Selvini Palazzoli (1916-1999), psychiatre italienne cofondatrice du mouvement de thérapie familiale systémique appelé « Approche de Milan  ».
 Donald deAvila Jackson (1920-1968), psychiatre américain, pionnier de la thérapie familiale et de la thérapie brève.
 Christian Müller (1921-2013) a fait évoluer le traitement des schizophrènes et l'Enquête de Lausanne sur leur devenir.
-Philippe Paumelle (1923-1974), psychiatre français, participe à la création de l'ASM13 à Paris où il fait interdire la contention mécanique, il est l'auteur d'un article sur "Le mythe de l’agitation des malades mentaux"[3].
+Philippe Paumelle (1923-1974), psychiatre français, participe à la création de l'ASM13 à Paris où il fait interdire la contention mécanique, il est l'auteur d'un article sur "Le mythe de l’agitation des malades mentaux".
 Franco Basaglia (1924-1980), psychiatre italien, à l'origine de la Loi 180 de fermeture des hôpitaux psychiatriques en Italie effective depuis 1999.
 Jean Oury (1924-2014), psychiatre et psychanalyste français, figure de la psychothérapie institutionnelle.
 Frantz Fanon (1925-1961), psychiatre antiraciste et révolutionnaire.
